--- a/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T09:18:07+00:00</t>
+    <t>2024-04-22T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="135">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,9 +252,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PROTOCOLE PRESCRIT</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -999,7 +996,7 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1007,10 +1004,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1021,25 +1018,25 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1090,33 +1087,33 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI3" t="s" s="2">
+      <c r="AJ3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1124,7 +1121,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -1139,13 +1136,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1184,19 +1181,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1219,13 +1216,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
@@ -1235,7 +1232,7 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1247,13 +1244,13 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1304,7 +1301,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1319,7 +1316,7 @@
         <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -1327,10 +1324,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1341,25 +1338,25 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1410,33 +1407,33 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI6" t="s" s="2">
+      <c r="AJ6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1459,13 +1456,13 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1504,19 +1501,19 @@
         <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1539,10 +1536,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1550,10 +1547,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1565,16 +1562,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1582,7 +1579,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1624,33 +1621,33 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1661,7 +1658,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1673,13 +1670,13 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1730,36 +1727,36 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI9" t="s" s="2">
+      <c r="AJ9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
@@ -1769,7 +1766,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1781,13 +1778,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1838,7 +1835,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1853,7 +1850,7 @@
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -1861,10 +1858,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1875,25 +1872,25 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1944,33 +1941,33 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1993,13 +1990,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2038,19 +2035,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2073,10 +2070,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2084,10 +2081,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2099,16 +2096,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2116,7 +2113,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -2158,33 +2155,33 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2195,7 +2192,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2207,13 +2204,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2264,46 +2261,46 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
+      <c r="AJ14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2315,13 +2312,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2372,7 +2369,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2387,7 +2384,7 @@
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -2395,10 +2392,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2409,25 +2406,25 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2478,33 +2475,33 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI16" t="s" s="2">
+      <c r="AJ16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2527,13 +2524,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2572,19 +2569,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2607,10 +2604,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2618,10 +2615,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -2633,16 +2630,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2650,7 +2647,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -2692,33 +2689,33 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2729,7 +2726,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -2741,13 +2738,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2798,33 +2795,33 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
+      <c r="AJ19" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2832,10 +2829,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -2847,16 +2844,16 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -2906,33 +2903,33 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2955,13 +2952,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3012,25 +3009,25 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="s" s="2">
+      <c r="AJ21" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-cp-treatment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
